--- a/hw5/matlab.xlsx
+++ b/hw5/matlab.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edlafem1\Documents\GitHubVisualStudio\math627\hw5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Teddy\Documents\GitHubVisualStudio\math627\hw5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5928"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5925"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>CG Method</t>
   </si>
@@ -66,12 +67,66 @@
   </si>
   <si>
     <t>||u-u_h||</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>cp2048</t>
+  </si>
+  <si>
+    <t>cp4096</t>
+  </si>
+  <si>
+    <t>cp8192</t>
+  </si>
+  <si>
+    <t>cp16384</t>
+  </si>
+  <si>
+    <t>cp32768</t>
+  </si>
+  <si>
+    <t>32.1g</t>
+  </si>
+  <si>
+    <t>8319m</t>
+  </si>
+  <si>
+    <t>2175m</t>
+  </si>
+  <si>
+    <t>639m</t>
+  </si>
+  <si>
+    <t>255m</t>
+  </si>
+  <si>
+    <t>8.0g</t>
+  </si>
+  <si>
+    <t>res</t>
+  </si>
+  <si>
+    <t>VIRT</t>
+  </si>
+  <si>
+    <t>530m</t>
+  </si>
+  <si>
+    <t>2.0g</t>
+  </si>
+  <si>
+    <t>32g</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -101,9 +156,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,20 +440,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -423,7 +483,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>32</v>
       </c>
@@ -431,10 +491,12 @@
         <f>PRODUCT(A3,A3)</f>
         <v>1024</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>3.0127700000000001E-3</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E3">
         <v>48</v>
       </c>
@@ -448,7 +510,7 @@
         <v>3.2808999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>64</v>
       </c>
@@ -456,8 +518,12 @@
         <f t="shared" ref="B4:B9" si="0">PRODUCT(A4,A4)</f>
         <v>4096</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>7.7810599999999998E-4</v>
+      </c>
+      <c r="D4" s="2">
+        <f>C3/C4</f>
+        <v>3.8719274751769044</v>
       </c>
       <c r="E4">
         <v>96</v>
@@ -472,7 +538,7 @@
         <v>3.2874979999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>128</v>
       </c>
@@ -480,8 +546,12 @@
         <f t="shared" si="0"/>
         <v>16384</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>1.97648E-4</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" ref="D5:D9" si="1">C4/C5</f>
+        <v>3.9368270865376829</v>
       </c>
       <c r="E5">
         <v>192</v>
@@ -499,7 +569,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>256</v>
       </c>
@@ -507,8 +577,12 @@
         <f t="shared" si="0"/>
         <v>65536</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>4.9796999999999998E-5</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="1"/>
+        <v>3.9690744422354762</v>
       </c>
       <c r="E6">
         <v>387</v>
@@ -523,7 +597,7 @@
         <v>3.2890000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>512</v>
       </c>
@@ -531,8 +605,12 @@
         <f t="shared" si="0"/>
         <v>262144</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>1.2493999999999999E-5</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="1"/>
+        <v>3.9856731230990876</v>
       </c>
       <c r="E7">
         <v>783</v>
@@ -547,7 +625,7 @@
         <v>3.2879999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1024</v>
       </c>
@@ -555,8 +633,12 @@
         <f t="shared" si="0"/>
         <v>1048576</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>3.1265999999999998E-6</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="1"/>
+        <v>3.9960340305763449</v>
       </c>
       <c r="E8">
         <v>1581</v>
@@ -571,7 +653,7 @@
         <v>3.2848899999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2048</v>
       </c>
@@ -579,8 +661,12 @@
         <f t="shared" si="0"/>
         <v>4194304</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>7.8019299999999998E-7</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="1"/>
+        <v>4.007469946538869</v>
       </c>
       <c r="E9">
         <v>3192</v>
@@ -595,22 +681,22 @@
         <v>3.2755670000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4096</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8192</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -633,7 +719,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>32</v>
       </c>
@@ -654,12 +740,12 @@
         <v>3.2808999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>64</v>
       </c>
       <c r="B17">
-        <f t="shared" ref="B17:B24" si="1">A17*A17</f>
+        <f t="shared" ref="B17:B24" si="2">A17*A17</f>
         <v>4096</v>
       </c>
       <c r="C17" s="1">
@@ -675,12 +761,12 @@
         <v>3.2875000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>128</v>
       </c>
       <c r="B18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16384</v>
       </c>
       <c r="C18" s="1">
@@ -696,12 +782,12 @@
         <v>3.2892000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>256</v>
       </c>
       <c r="B19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>65536</v>
       </c>
       <c r="C19" s="1">
@@ -720,12 +806,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>512</v>
       </c>
       <c r="B20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>262144</v>
       </c>
       <c r="C20" s="1">
@@ -741,12 +827,12 @@
         <v>3.2898000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1024</v>
       </c>
       <c r="B21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1048576</v>
       </c>
       <c r="C21" s="1">
@@ -762,12 +848,12 @@
         <v>3.28986</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2048</v>
       </c>
       <c r="B22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4194304</v>
       </c>
       <c r="C22" s="1">
@@ -783,12 +869,12 @@
         <v>3.2898999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>4096</v>
       </c>
       <c r="B23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16777216</v>
       </c>
       <c r="C23" s="1">
@@ -804,12 +890,12 @@
         <v>3.2913000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>8192</v>
       </c>
       <c r="B24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>67108864</v>
       </c>
       <c r="C24" s="1">
@@ -825,7 +911,68 @@
         <v>3.3134999999999999</v>
       </c>
     </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/hw5/matlab.xlsx
+++ b/hw5/matlab.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>CG Method</t>
   </si>
@@ -118,6 +117,15 @@
   </si>
   <si>
     <t>32g</t>
+  </si>
+  <si>
+    <t>u-uh</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>iter</t>
   </si>
 </sst>
 </file>
@@ -440,14 +448,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
   </cols>
@@ -949,7 +958,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>18</v>
       </c>
@@ -960,7 +969,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -969,6 +978,181 @@
       </c>
       <c r="C34" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>32</v>
+      </c>
+      <c r="B38">
+        <f>0.00301277655464715</f>
+        <v>3.0127765546471498E-3</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1.22599601745605E-2</v>
+      </c>
+      <c r="D38">
+        <v>48</v>
+      </c>
+      <c r="E38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>64</v>
+      </c>
+      <c r="B39" s="1">
+        <v>7.7810619700602302E-4</v>
+      </c>
+      <c r="C39" s="1">
+        <v>2.9861927032470699E-3</v>
+      </c>
+      <c r="D39">
+        <v>96</v>
+      </c>
+      <c r="E39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>128</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1.9764834769608799E-4</v>
+      </c>
+      <c r="C40" s="1">
+        <v>3.2128095626830999E-2</v>
+      </c>
+      <c r="D40">
+        <v>192</v>
+      </c>
+      <c r="E40" s="1">
+        <f>B39/B40</f>
+        <v>3.9368211577587799</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>256</v>
+      </c>
+      <c r="B41" s="1">
+        <v>4.9797438583243302E-5</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.16878199577331501</v>
+      </c>
+      <c r="D41">
+        <v>387</v>
+      </c>
+      <c r="E41" s="1">
+        <f t="shared" ref="E41:E48" si="3">B40/B41</f>
+        <v>3.969046467434092</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>512</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1.24942786493553E-5</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1.2435050010681099</v>
+      </c>
+      <c r="D42">
+        <v>783</v>
+      </c>
+      <c r="E42" s="1">
+        <f t="shared" si="3"/>
+        <v>3.985619336720398</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1024</v>
+      </c>
+      <c r="B43" s="1">
+        <v>3.1266064489665598E-6</v>
+      </c>
+      <c r="C43" s="1">
+        <v>12.432227849960301</v>
+      </c>
+      <c r="D43">
+        <v>1581</v>
+      </c>
+      <c r="E43" s="1">
+        <f t="shared" si="3"/>
+        <v>3.996114910299966</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2048</v>
+      </c>
+      <c r="B44" s="1">
+        <v>7.8019385341132598E-7</v>
+      </c>
+      <c r="C44" s="1">
+        <v>124.338080883026</v>
+      </c>
+      <c r="D44">
+        <v>3192</v>
+      </c>
+      <c r="E44" s="1">
+        <f t="shared" si="3"/>
+        <v>4.0074738288385126</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>4096</v>
+      </c>
+      <c r="E45" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>8162</v>
+      </c>
+      <c r="E46" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>16384</v>
+      </c>
+      <c r="E47" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>32768</v>
+      </c>
+      <c r="E48" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>

--- a/hw5/matlab.xlsx
+++ b/hw5/matlab.xlsx
@@ -132,8 +132,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -164,10 +165,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,6 +461,7 @@
     <col min="2" max="2" width="12.5703125" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -993,56 +996,59 @@
       <c r="D37" t="s">
         <v>33</v>
       </c>
+      <c r="E37" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>32</v>
       </c>
-      <c r="B38">
-        <f>0.00301277655464715</f>
+      <c r="B38" s="2">
         <v>3.0127765546471498E-3</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="3">
         <v>1.22599601745605E-2</v>
       </c>
       <c r="D38">
         <v>48</v>
       </c>
       <c r="E38" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>64</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="2">
         <v>7.7810619700602302E-4</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="3">
         <v>2.9861927032470699E-3</v>
       </c>
       <c r="D39">
         <v>96</v>
       </c>
-      <c r="E39" t="s">
-        <v>14</v>
+      <c r="E39" s="3">
+        <f>B38/B39</f>
+        <v>3.8719349187034289</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>128</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="2">
         <v>1.9764834769608799E-4</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="3">
         <v>3.2128095626830999E-2</v>
       </c>
       <c r="D40">
         <v>192</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="3">
         <f>B39/B40</f>
         <v>3.9368211577587799</v>
       </c>
@@ -1051,16 +1057,16 @@
       <c r="A41">
         <v>256</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="2">
         <v>4.9797438583243302E-5</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="3">
         <v>0.16878199577331501</v>
       </c>
       <c r="D41">
         <v>387</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="3">
         <f t="shared" ref="E41:E48" si="3">B40/B41</f>
         <v>3.969046467434092</v>
       </c>
@@ -1069,16 +1075,16 @@
       <c r="A42">
         <v>512</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="2">
         <v>1.24942786493553E-5</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="3">
         <v>1.2435050010681099</v>
       </c>
       <c r="D42">
         <v>783</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="3">
         <f t="shared" si="3"/>
         <v>3.985619336720398</v>
       </c>
@@ -1087,16 +1093,16 @@
       <c r="A43">
         <v>1024</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="2">
         <v>3.1266064489665598E-6</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="3">
         <v>12.432227849960301</v>
       </c>
       <c r="D43">
         <v>1581</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="3">
         <f t="shared" si="3"/>
         <v>3.996114910299966</v>
       </c>
@@ -1105,17 +1111,17 @@
       <c r="A44">
         <v>2048</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="2">
         <v>7.8019385341132598E-7</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="3">
         <v>124.338080883026</v>
       </c>
       <c r="D44">
         <v>3192</v>
       </c>
-      <c r="E44" s="1">
-        <f t="shared" si="3"/>
+      <c r="E44" s="3">
+        <f>B43/B44</f>
         <v>4.0074738288385126</v>
       </c>
     </row>
@@ -1123,27 +1129,54 @@
       <c r="A45">
         <v>4096</v>
       </c>
-      <c r="E45" s="1" t="e">
+      <c r="B45" s="2">
+        <v>1.9365846248842099E-7</v>
+      </c>
+      <c r="C45" s="3">
+        <v>1002.83231592178</v>
+      </c>
+      <c r="D45">
+        <v>6542</v>
+      </c>
+      <c r="E45" s="3">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>4.0287103562952975</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>8162</v>
       </c>
-      <c r="E46" s="1" t="e">
+      <c r="B46" s="2">
+        <v>4.7376211842475802E-8</v>
+      </c>
+      <c r="C46" s="3">
+        <v>8090.2605330943998</v>
+      </c>
+      <c r="D46">
+        <v>13033</v>
+      </c>
+      <c r="E46" s="3">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>4.0876730105042673</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>16384</v>
       </c>
-      <c r="E47" s="1" t="e">
+      <c r="B47" s="2">
+        <v>1.1542543032483299E-8</v>
+      </c>
+      <c r="C47" s="3">
+        <v>66648.174027919697</v>
+      </c>
+      <c r="D47">
+        <v>26316</v>
+      </c>
+      <c r="E47" s="3">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>4.1044864818046198</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1153,6 +1186,12 @@
       <c r="E48" s="1" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f>32*32</f>
+        <v>1024</v>
       </c>
     </row>
   </sheetData>
